--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1491.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1491.xlsx
@@ -354,7 +354,7 @@
         <v>2.072832135780217</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.844853886426601</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1491.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1491.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.340377060204115</v>
+        <v>1.564566135406494</v>
       </c>
       <c r="B1">
-        <v>2.072832135780217</v>
+        <v>4.348228454589844</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.164056301116943</v>
       </c>
       <c r="D1">
-        <v>1.844853886426601</v>
+        <v>1.29225480556488</v>
       </c>
       <c r="E1">
-        <v>0.7853580062454378</v>
+        <v>0.9297963380813599</v>
       </c>
     </row>
   </sheetData>
